--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3078295.662962656</v>
+        <v>3075798.496785793</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673414</v>
+        <v>603248.4937673424</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8129639.711347204</v>
+        <v>8129639.711347203</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536693</v>
+        <v>311.7236160152329</v>
       </c>
       <c r="F11" t="n">
         <v>359.9009091231189</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
-        <v>77.18791253260744</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
         <v>280.7771218515423</v>
@@ -1433,7 +1433,7 @@
         <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>339.262802037461</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
         <v>120.2716844800353</v>
@@ -1534,19 +1534,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G13" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124556</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T13" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U13" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V13" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W13" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X13" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="14">
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>275.9723987444509</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020905</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>363.9465890348609</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T14" t="n">
-        <v>31.53907865016198</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
         <v>280.7771218515423</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
         <v>120.2716844800353</v>
@@ -1771,19 +1771,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G16" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S16" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T16" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U16" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V16" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W16" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X16" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>288.7835684262954</v>
+        <v>288.7835684262956</v>
       </c>
       <c r="C17" t="n">
-        <v>271.3226185338224</v>
+        <v>271.3226185338225</v>
       </c>
       <c r="D17" t="n">
-        <v>260.7327683834978</v>
+        <v>260.732768383498</v>
       </c>
       <c r="E17" t="n">
-        <v>287.9800968350766</v>
+        <v>287.9800968350768</v>
       </c>
       <c r="F17" t="n">
-        <v>312.9257725045263</v>
+        <v>312.9257725045264</v>
       </c>
       <c r="G17" t="n">
-        <v>316.9714524162683</v>
+        <v>264.6891945433883</v>
       </c>
       <c r="H17" t="n">
-        <v>200.6574911501353</v>
+        <v>200.6574911501354</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>15.23748855099065</v>
+        <v>15.2374885509908</v>
       </c>
       <c r="T17" t="n">
-        <v>57.68543902955754</v>
+        <v>109.9676969024351</v>
       </c>
       <c r="U17" t="n">
-        <v>157.0448987217168</v>
+        <v>157.0448987217169</v>
       </c>
       <c r="V17" t="n">
-        <v>233.8019852329497</v>
+        <v>233.8019852329499</v>
       </c>
       <c r="W17" t="n">
-        <v>255.2906954802278</v>
+        <v>255.290695480228</v>
       </c>
       <c r="X17" t="n">
-        <v>275.7808274412839</v>
+        <v>275.780827441284</v>
       </c>
       <c r="Y17" t="n">
-        <v>292.2876654188684</v>
+        <v>292.2876654188685</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85.88170694475214</v>
+        <v>85.88170694475227</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>54.66519978102733</v>
       </c>
       <c r="E19" t="n">
-        <v>52.48368940938401</v>
+        <v>52.48368940938414</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>51.47077478574622</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>72.07553502184319</v>
       </c>
       <c r="H19" t="n">
-        <v>53.26506285967915</v>
+        <v>50.80474167713575</v>
       </c>
       <c r="I19" t="n">
-        <v>2.402147172652924</v>
+        <v>2.402147172653066</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>95.81875209425672</v>
+        <v>98.2790732767984</v>
       </c>
       <c r="T19" t="n">
-        <v>125.598676038984</v>
+        <v>125.5986760389842</v>
       </c>
       <c r="U19" t="n">
-        <v>192.2615649684277</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>158.1873700866428</v>
+        <v>158.187370086643</v>
       </c>
       <c r="W19" t="n">
-        <v>192.5727250994058</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>131.759382151852</v>
+        <v>131.7593821518521</v>
       </c>
       <c r="Y19" t="n">
-        <v>124.6343801149096</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>288.7835684262954</v>
+        <v>288.7835684262956</v>
       </c>
       <c r="C20" t="n">
-        <v>271.3226185338224</v>
+        <v>271.3226185338225</v>
       </c>
       <c r="D20" t="n">
-        <v>260.7327683834978</v>
+        <v>260.732768383498</v>
       </c>
       <c r="E20" t="n">
-        <v>287.9800968350766</v>
+        <v>287.9800968350768</v>
       </c>
       <c r="F20" t="n">
-        <v>260.6435146316499</v>
+        <v>312.9257725045264</v>
       </c>
       <c r="G20" t="n">
-        <v>316.9714524162683</v>
+        <v>316.9714524162684</v>
       </c>
       <c r="H20" t="n">
-        <v>200.6574911501353</v>
+        <v>148.375233277257</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>15.23748855099068</v>
+        <v>15.2374885509908</v>
       </c>
       <c r="T20" t="n">
-        <v>109.967696902435</v>
+        <v>109.9676969024351</v>
       </c>
       <c r="U20" t="n">
-        <v>157.0448987217168</v>
+        <v>157.0448987217169</v>
       </c>
       <c r="V20" t="n">
-        <v>233.8019852329497</v>
+        <v>233.8019852329499</v>
       </c>
       <c r="W20" t="n">
-        <v>255.2906954802278</v>
+        <v>255.290695480228</v>
       </c>
       <c r="X20" t="n">
-        <v>275.7808274412839</v>
+        <v>275.780827441284</v>
       </c>
       <c r="Y20" t="n">
-        <v>292.2876654188684</v>
+        <v>292.2876654188685</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.88170694475214</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>73.29654786144268</v>
+        <v>73.2965478614428</v>
       </c>
       <c r="D22" t="n">
-        <v>54.6651997810272</v>
+        <v>54.66519978102733</v>
       </c>
       <c r="E22" t="n">
-        <v>54.9440105919271</v>
+        <v>52.48368940938414</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>51.47077478574622</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>72.07553502184319</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>50.80474167713575</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>2.402147172653066</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>95.81875209425672</v>
+        <v>95.81875209425687</v>
       </c>
       <c r="T22" t="n">
-        <v>125.598676038984</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>192.2615649684277</v>
+        <v>192.2615649684278</v>
       </c>
       <c r="V22" t="n">
-        <v>158.1873700866428</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>192.5727250994058</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>131.759382151852</v>
+        <v>131.7593821518521</v>
       </c>
       <c r="Y22" t="n">
-        <v>124.6343801149096</v>
+        <v>127.0947012974512</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>288.7835684262954</v>
+        <v>288.7835684262956</v>
       </c>
       <c r="C23" t="n">
-        <v>271.3226185338224</v>
+        <v>271.3226185338225</v>
       </c>
       <c r="D23" t="n">
-        <v>260.7327683834978</v>
+        <v>260.732768383498</v>
       </c>
       <c r="E23" t="n">
-        <v>287.9800968350766</v>
+        <v>287.9800968350768</v>
       </c>
       <c r="F23" t="n">
-        <v>312.9257725045263</v>
+        <v>312.9257725045264</v>
       </c>
       <c r="G23" t="n">
-        <v>316.9714524162683</v>
+        <v>316.9714524162684</v>
       </c>
       <c r="H23" t="n">
-        <v>200.6574911501353</v>
+        <v>158.9323749932459</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>15.23748855099068</v>
+        <v>15.2374885509908</v>
       </c>
       <c r="T23" t="n">
-        <v>109.967696902435</v>
+        <v>109.9676969024351</v>
       </c>
       <c r="U23" t="n">
-        <v>157.0448987217168</v>
+        <v>157.0448987217169</v>
       </c>
       <c r="V23" t="n">
-        <v>192.0768690760613</v>
+        <v>233.8019852329499</v>
       </c>
       <c r="W23" t="n">
-        <v>255.2906954802278</v>
+        <v>255.290695480228</v>
       </c>
       <c r="X23" t="n">
-        <v>275.7808274412839</v>
+        <v>275.780827441284</v>
       </c>
       <c r="Y23" t="n">
-        <v>292.2876654188684</v>
+        <v>292.2876654188685</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.88170694475214</v>
+        <v>93.36014869443144</v>
       </c>
       <c r="C25" t="n">
-        <v>73.29654786144268</v>
+        <v>73.2965478614428</v>
       </c>
       <c r="D25" t="n">
-        <v>54.6651997810272</v>
+        <v>54.66519978102733</v>
       </c>
       <c r="E25" t="n">
-        <v>54.94401059192698</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>51.47077478574622</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>72.07553502184319</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>50.80474167713575</v>
       </c>
       <c r="I25" t="n">
-        <v>2.402147172652938</v>
+        <v>2.402147172653066</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>95.81875209425687</v>
       </c>
       <c r="T25" t="n">
-        <v>125.598676038984</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>192.2615649684277</v>
+        <v>192.2615649684278</v>
       </c>
       <c r="V25" t="n">
-        <v>158.1873700866428</v>
+        <v>158.187370086643</v>
       </c>
       <c r="W25" t="n">
-        <v>192.5727250994058</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>131.759382151852</v>
+        <v>131.7593821518521</v>
       </c>
       <c r="Y25" t="n">
-        <v>124.6343801149096</v>
+        <v>124.6343801149098</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>318.297755152415</v>
@@ -2567,10 +2567,10 @@
         <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958328</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
-        <v>149.3667174095272</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
         <v>302.2658320988205</v>
@@ -2621,7 +2621,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.262802037461</v>
+        <v>223.2771060338921</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C28" t="n">
         <v>120.2716844800353</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U28" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X28" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="29">
@@ -2795,19 +2795,19 @@
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>31.50637021582515</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E29" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348609</v>
+        <v>247.1574214400725</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V29" t="n">
         <v>280.7771218515423</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247741</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3035,7 +3035,7 @@
         <v>257.75240294372</v>
       </c>
       <c r="E32" t="n">
-        <v>284.9997313952988</v>
+        <v>284.9997313952989</v>
       </c>
       <c r="F32" t="n">
         <v>309.9454070647485</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>12.25712311121285</v>
+        <v>12.25712311121292</v>
       </c>
       <c r="T32" t="n">
         <v>106.9873314626572</v>
       </c>
       <c r="U32" t="n">
-        <v>154.064533281939</v>
+        <v>154.0645332819391</v>
       </c>
       <c r="V32" t="n">
-        <v>230.8216197931719</v>
+        <v>230.821619793172</v>
       </c>
       <c r="W32" t="n">
-        <v>252.31033004045</v>
+        <v>252.3103300404501</v>
       </c>
       <c r="X32" t="n">
-        <v>272.800462001506</v>
+        <v>272.8004620015061</v>
       </c>
       <c r="Y32" t="n">
-        <v>289.3072999790906</v>
+        <v>289.3072999790907</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247741</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>82.90134150497438</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>70.31618242166492</v>
       </c>
       <c r="D34" t="n">
-        <v>51.68483434124937</v>
+        <v>51.68483434124944</v>
       </c>
       <c r="E34" t="n">
-        <v>49.50332396960619</v>
+        <v>49.50332396960626</v>
       </c>
       <c r="F34" t="n">
-        <v>48.49040934596826</v>
+        <v>48.49040934596833</v>
       </c>
       <c r="G34" t="n">
-        <v>69.09516958206524</v>
+        <v>69.09516958206531</v>
       </c>
       <c r="H34" t="n">
-        <v>90.48898499724766</v>
+        <v>47.82437623735787</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>92.83838665447898</v>
       </c>
       <c r="T34" t="n">
-        <v>122.6183105992062</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>189.2811995286499</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>155.207004646865</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>189.592359659628</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>128.7790167120742</v>
+        <v>163.4451394650477</v>
       </c>
       <c r="Y34" t="n">
-        <v>121.6540146751318</v>
+        <v>121.6540146751319</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>309.1913255136064</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253485</v>
+        <v>313.237005425349</v>
       </c>
       <c r="H35" t="n">
         <v>196.9230441592155</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007116</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115152</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052287</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>50.93075279010739</v>
@@ -3433,7 +3433,7 @@
         <v>48.74924241846421</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482628</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>68.34108803092326</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333693</v>
+        <v>134.2912433677308</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V37" t="n">
-        <v>196.6598613601172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="38">
@@ -3658,19 +3658,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C40" t="n">
         <v>69.56210087052287</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>93.13769105450118</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G40" t="n">
         <v>68.34108803092326</v>
@@ -3712,22 +3712,22 @@
         <v>92.08430510333693</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>154.452923095723</v>
       </c>
       <c r="W40" t="n">
-        <v>231.0452163728799</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>128.0249351609322</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D41" t="n">
-        <v>256.9983213925779</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.5030415600708</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V41" t="n">
         <v>230.06753824203</v>
       </c>
       <c r="W41" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383226</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>69.5621008705228</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F43" t="n">
-        <v>89.94326605922105</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092319</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621575</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>42.20693826439323</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333686</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480641</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775078</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V43" t="n">
-        <v>154.452923095723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D44" t="n">
-        <v>256.9983213925779</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.5030415600708</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U44" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V44" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W44" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X44" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383226</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>69.5621008705228</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010732</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846414</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482621</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333686</v>
+        <v>143.0438109257884</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V46" t="n">
-        <v>196.6598613601174</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609321</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
   </sheetData>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1650.849925018063</v>
+        <v>1627.383644777219</v>
       </c>
       <c r="C11" t="n">
-        <v>1329.337041025725</v>
+        <v>1305.870760784881</v>
       </c>
       <c r="D11" t="n">
-        <v>1018.520975367048</v>
+        <v>995.0546951262036</v>
       </c>
       <c r="E11" t="n">
-        <v>680.1823557168773</v>
+        <v>680.1823557168772</v>
       </c>
       <c r="F11" t="n">
-        <v>316.646083875343</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="G11" t="n">
-        <v>316.646083875343</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H11" t="n">
         <v>66.51211643218342</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U11" t="n">
-        <v>3247.638233192396</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V11" t="n">
-        <v>2964.024978796898</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W11" t="n">
-        <v>2658.705956474857</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X11" t="n">
-        <v>2332.689831161851</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="Y11" t="n">
-        <v>1990.000132134112</v>
+        <v>1966.533851893268</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158139</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052944</v>
+        <v>759.4662498052946</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254608</v>
+        <v>637.979699825461</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611983</v>
+        <v>535.3126933611986</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268788</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770413</v>
+        <v>335.4089181770416</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998335</v>
+        <v>215.1557144998338</v>
       </c>
       <c r="H13" t="n">
         <v>116.3881606657648</v>
@@ -5197,13 +5197,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337114</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5218,10 +5218,10 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q13" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R13" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S13" t="n">
         <v>2112.720554588247</v>
@@ -5242,7 +5242,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874608</v>
+        <v>893.665081687461</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1696.959858232656</v>
+        <v>1301.367519464213</v>
       </c>
       <c r="C14" t="n">
-        <v>1696.959858232656</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="D14" t="n">
-        <v>1386.143792573979</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="E14" t="n">
-        <v>1047.805172923808</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="F14" t="n">
         <v>684.2689010822731</v>
       </c>
       <c r="G14" t="n">
-        <v>316.646083875343</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5294,34 +5294,34 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T14" t="n">
-        <v>3293.748166406988</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U14" t="n">
-        <v>3293.748166406988</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V14" t="n">
-        <v>3010.13491201149</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W14" t="n">
-        <v>2704.815889689449</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X14" t="n">
-        <v>2378.799764376442</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y14" t="n">
-        <v>2036.110065348704</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052946</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C16" t="n">
-        <v>637.979699825461</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611985</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268787</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F16" t="n">
         <v>335.4089181770415</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998338</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H16" t="n">
         <v>116.3881606657648</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315258</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328088</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
       </c>
       <c r="N16" t="n">
-        <v>1550.274078843939</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O16" t="n">
-        <v>1896.109063016759</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P16" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q16" t="n">
         <v>2299.337630107746</v>
@@ -5479,7 +5479,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874611</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1733.774944536554</v>
+        <v>1680.964583048798</v>
       </c>
       <c r="C17" t="n">
-        <v>1459.711693492289</v>
+        <v>1406.901332004533</v>
       </c>
       <c r="D17" t="n">
-        <v>1196.345260781685</v>
+        <v>1143.534899293929</v>
       </c>
       <c r="E17" t="n">
-        <v>905.4562740795875</v>
+        <v>852.6459125918309</v>
       </c>
       <c r="F17" t="n">
-        <v>589.3696351861265</v>
+        <v>536.5592736983699</v>
       </c>
       <c r="G17" t="n">
-        <v>269.1964509272696</v>
+        <v>269.1964509272697</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5513,10 +5513,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5540,25 +5540,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3310.214419032413</v>
+        <v>3310.214419032412</v>
       </c>
       <c r="T17" t="n">
-        <v>3251.946298800537</v>
+        <v>3199.135937312781</v>
       </c>
       <c r="U17" t="n">
-        <v>3093.315087970519</v>
+        <v>3040.504726482764</v>
       </c>
       <c r="V17" t="n">
-        <v>2857.151466523095</v>
+        <v>2804.341105035339</v>
       </c>
       <c r="W17" t="n">
-        <v>2599.282077149128</v>
+        <v>2546.471715661371</v>
       </c>
       <c r="X17" t="n">
-        <v>2320.715584784195</v>
+        <v>2267.905223296438</v>
       </c>
       <c r="Y17" t="n">
-        <v>2025.475518704529</v>
+        <v>1972.665157216773</v>
       </c>
     </row>
     <row r="18">
@@ -5568,52 +5568,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5625,7 +5625,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>809.4010556650277</v>
+        <v>522.2180850649285</v>
       </c>
       <c r="C19" t="n">
-        <v>640.4648727371208</v>
+        <v>353.2819021370216</v>
       </c>
       <c r="D19" t="n">
-        <v>490.348233324785</v>
+        <v>298.0645286208323</v>
       </c>
       <c r="E19" t="n">
-        <v>437.3344056385386</v>
+        <v>245.0507009345857</v>
       </c>
       <c r="F19" t="n">
-        <v>290.4444581406282</v>
+        <v>193.0600193328218</v>
       </c>
       <c r="G19" t="n">
-        <v>122.7416215153471</v>
+        <v>120.2564486036873</v>
       </c>
       <c r="H19" t="n">
-        <v>68.93852771769143</v>
+        <v>68.93852771769157</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
@@ -5674,16 +5674,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
@@ -5698,25 +5698,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1830.507929811466</v>
+        <v>1828.022756899808</v>
       </c>
       <c r="T19" t="n">
-        <v>1703.640580277139</v>
+        <v>1701.15540736548</v>
       </c>
       <c r="U19" t="n">
-        <v>1509.436979298929</v>
+        <v>1412.052540491124</v>
       </c>
       <c r="V19" t="n">
-        <v>1349.651756989189</v>
+        <v>1252.267318181383</v>
       </c>
       <c r="W19" t="n">
-        <v>1155.133852848375</v>
+        <v>962.8501481444226</v>
       </c>
       <c r="X19" t="n">
-        <v>1022.043567846504</v>
+        <v>829.7598631425518</v>
       </c>
       <c r="Y19" t="n">
-        <v>896.1502545991208</v>
+        <v>608.9672839990217</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1680.9645830488</v>
+        <v>1680.964583048798</v>
       </c>
       <c r="C20" t="n">
-        <v>1406.901332004535</v>
+        <v>1406.901332004533</v>
       </c>
       <c r="D20" t="n">
-        <v>1143.534899293931</v>
+        <v>1143.534899293929</v>
       </c>
       <c r="E20" t="n">
-        <v>852.6459125918334</v>
+        <v>852.6459125918313</v>
       </c>
       <c r="F20" t="n">
-        <v>589.3696351861264</v>
+        <v>536.5592736983704</v>
       </c>
       <c r="G20" t="n">
-        <v>269.1964509272696</v>
+        <v>216.3860894395137</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912085</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3310.214419032413</v>
+        <v>3310.214419032412</v>
       </c>
       <c r="T20" t="n">
-        <v>3199.135937312782</v>
+        <v>3199.135937312781</v>
       </c>
       <c r="U20" t="n">
-        <v>3040.504726482765</v>
+        <v>3040.504726482764</v>
       </c>
       <c r="V20" t="n">
-        <v>2804.341105035341</v>
+        <v>2804.341105035339</v>
       </c>
       <c r="W20" t="n">
-        <v>2546.471715661373</v>
+        <v>2546.471715661371</v>
       </c>
       <c r="X20" t="n">
-        <v>2267.90522329644</v>
+        <v>2267.905223296439</v>
       </c>
       <c r="Y20" t="n">
-        <v>1972.665157216775</v>
+        <v>1972.665157216773</v>
       </c>
     </row>
     <row r="21">
@@ -5805,31 +5805,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
@@ -5862,7 +5862,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>809.4010556650272</v>
+        <v>427.318819168782</v>
       </c>
       <c r="C22" t="n">
-        <v>735.364138633267</v>
+        <v>353.2819021370216</v>
       </c>
       <c r="D22" t="n">
-        <v>680.1467651170778</v>
+        <v>298.0645286208323</v>
       </c>
       <c r="E22" t="n">
-        <v>624.6477645191717</v>
+        <v>245.0507009345857</v>
       </c>
       <c r="F22" t="n">
-        <v>477.7578170212613</v>
+        <v>193.0600193328218</v>
       </c>
       <c r="G22" t="n">
-        <v>310.0549803959803</v>
+        <v>120.2564486036873</v>
       </c>
       <c r="H22" t="n">
-        <v>163.8377936138381</v>
+        <v>68.93852771769157</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5938,22 +5938,22 @@
         <v>1830.507929811466</v>
       </c>
       <c r="T22" t="n">
-        <v>1703.640580277138</v>
+        <v>1608.741314380992</v>
       </c>
       <c r="U22" t="n">
-        <v>1509.436979298929</v>
+        <v>1414.537713402782</v>
       </c>
       <c r="V22" t="n">
-        <v>1349.651756989188</v>
+        <v>1159.853225196895</v>
       </c>
       <c r="W22" t="n">
-        <v>1155.133852848375</v>
+        <v>870.4360551599341</v>
       </c>
       <c r="X22" t="n">
-        <v>1022.043567846504</v>
+        <v>737.3457701580633</v>
       </c>
       <c r="Y22" t="n">
-        <v>896.1502545991203</v>
+        <v>608.9672839990217</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1733.992572689841</v>
+        <v>1691.845990713186</v>
       </c>
       <c r="C23" t="n">
-        <v>1459.929321645576</v>
+        <v>1417.782739668921</v>
       </c>
       <c r="D23" t="n">
-        <v>1196.562888934973</v>
+        <v>1154.416306958317</v>
       </c>
       <c r="E23" t="n">
-        <v>905.673902232875</v>
+        <v>863.5273202562194</v>
       </c>
       <c r="F23" t="n">
-        <v>589.5872633394141</v>
+        <v>547.4406813627584</v>
       </c>
       <c r="G23" t="n">
-        <v>269.4140790805573</v>
+        <v>227.2674971039014</v>
       </c>
       <c r="H23" t="n">
-        <v>66.72974458547115</v>
+        <v>66.72974458547117</v>
       </c>
       <c r="I23" t="n">
-        <v>66.72974458547115</v>
+        <v>66.72974458547117</v>
       </c>
       <c r="J23" t="n">
         <v>255.6088755444966</v>
@@ -6002,37 +6002,37 @@
         <v>2120.773184213459</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.745655092796</v>
+        <v>2634.409434603896</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.520021449974</v>
+        <v>3029.183800961074</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.806383205656</v>
+        <v>3277.470162716756</v>
       </c>
       <c r="R23" t="n">
-        <v>3336.487229273558</v>
+        <v>3336.487229273559</v>
       </c>
       <c r="S23" t="n">
         <v>3321.0958266968</v>
       </c>
       <c r="T23" t="n">
-        <v>3210.017344977168</v>
+        <v>3210.017344977169</v>
       </c>
       <c r="U23" t="n">
-        <v>3051.386134147151</v>
+        <v>3051.386134147152</v>
       </c>
       <c r="V23" t="n">
-        <v>2857.369094676383</v>
+        <v>2815.222512699728</v>
       </c>
       <c r="W23" t="n">
-        <v>2599.499705302415</v>
+        <v>2557.35312332576</v>
       </c>
       <c r="X23" t="n">
-        <v>2320.933212937482</v>
+        <v>2278.786630960827</v>
       </c>
       <c r="Y23" t="n">
-        <v>2025.693146857816</v>
+        <v>1983.546564881161</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.7614826343964</v>
+        <v>941.7614826343963</v>
       </c>
       <c r="C24" t="n">
-        <v>767.3084533532694</v>
+        <v>767.3084533532693</v>
       </c>
       <c r="D24" t="n">
-        <v>618.3740436920182</v>
+        <v>618.3740436920181</v>
       </c>
       <c r="E24" t="n">
         <v>459.1365886865626</v>
@@ -6063,7 +6063,7 @@
         <v>85.73703618393318</v>
       </c>
       <c r="I24" t="n">
-        <v>66.72974458547115</v>
+        <v>66.72974458547117</v>
       </c>
       <c r="J24" t="n">
         <v>160.4070140760885</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>714.7194179221682</v>
+        <v>522.4357132182162</v>
       </c>
       <c r="C25" t="n">
-        <v>640.6825008904079</v>
+        <v>448.3987961864558</v>
       </c>
       <c r="D25" t="n">
-        <v>585.4651273742188</v>
+        <v>393.1814226702666</v>
       </c>
       <c r="E25" t="n">
-        <v>529.9661267763128</v>
+        <v>245.2683290878734</v>
       </c>
       <c r="F25" t="n">
-        <v>383.0761792784024</v>
+        <v>193.2776474861096</v>
       </c>
       <c r="G25" t="n">
-        <v>215.3733426531214</v>
+        <v>120.474076756975</v>
       </c>
       <c r="H25" t="n">
-        <v>69.15615587097918</v>
+        <v>69.15615587097932</v>
       </c>
       <c r="I25" t="n">
-        <v>66.72974458547115</v>
+        <v>66.72974458547117</v>
       </c>
       <c r="J25" t="n">
         <v>111.8523770324067</v>
@@ -6151,7 +6151,7 @@
         <v>315.8395599812831</v>
       </c>
       <c r="L25" t="n">
-        <v>632.3993584297791</v>
+        <v>632.3993584297792</v>
       </c>
       <c r="M25" t="n">
         <v>976.5564040293282</v>
@@ -6169,28 +6169,28 @@
         <v>1927.51217624178</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.51217624178</v>
+        <v>1837.681718999308</v>
       </c>
       <c r="S25" t="n">
-        <v>1735.826292068607</v>
+        <v>1740.895100722281</v>
       </c>
       <c r="T25" t="n">
-        <v>1608.958942534279</v>
+        <v>1519.128485291807</v>
       </c>
       <c r="U25" t="n">
-        <v>1414.75534155607</v>
+        <v>1324.924884313597</v>
       </c>
       <c r="V25" t="n">
-        <v>1254.970119246329</v>
+        <v>1165.139662003857</v>
       </c>
       <c r="W25" t="n">
-        <v>1060.452215105516</v>
+        <v>875.7224919668963</v>
       </c>
       <c r="X25" t="n">
-        <v>927.3619301036448</v>
+        <v>742.6322069650255</v>
       </c>
       <c r="Y25" t="n">
-        <v>801.4686168562613</v>
+        <v>616.7388937176419</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1651.067553171351</v>
+        <v>1768.556402935122</v>
       </c>
       <c r="C26" t="n">
-        <v>1329.554669179013</v>
+        <v>1447.043518942784</v>
       </c>
       <c r="D26" t="n">
-        <v>1018.738603520336</v>
+        <v>1136.227453284107</v>
       </c>
       <c r="E26" t="n">
-        <v>680.3999838701649</v>
+        <v>797.8888336339357</v>
       </c>
       <c r="F26" t="n">
-        <v>316.8637120286307</v>
+        <v>434.3525617924014</v>
       </c>
       <c r="G26" t="n">
-        <v>316.8637120286307</v>
+        <v>66.72974458547117</v>
       </c>
       <c r="H26" t="n">
-        <v>66.72974458547115</v>
+        <v>66.72974458547117</v>
       </c>
       <c r="I26" t="n">
-        <v>66.72974458547115</v>
+        <v>66.72974458547117</v>
       </c>
       <c r="J26" t="n">
         <v>255.6088755444966</v>
@@ -6233,43 +6233,43 @@
         <v>1040.462462482752</v>
       </c>
       <c r="M26" t="n">
-        <v>1584.658146665775</v>
+        <v>1573.994367154677</v>
       </c>
       <c r="N26" t="n">
-        <v>2131.436963724558</v>
+        <v>2120.773184213459</v>
       </c>
       <c r="O26" t="n">
-        <v>2634.409434603895</v>
+        <v>2623.745655092796</v>
       </c>
       <c r="P26" t="n">
-        <v>3029.183800961073</v>
+        <v>3018.520021449974</v>
       </c>
       <c r="Q26" t="n">
-        <v>3277.470162716755</v>
+        <v>3277.470162716756</v>
       </c>
       <c r="R26" t="n">
-        <v>3336.487229273558</v>
+        <v>3336.487229273559</v>
       </c>
       <c r="S26" t="n">
-        <v>3273.646193748726</v>
+        <v>3273.646193748727</v>
       </c>
       <c r="T26" t="n">
-        <v>3115.118079081021</v>
+        <v>3115.118079081022</v>
       </c>
       <c r="U26" t="n">
-        <v>2964.242606950185</v>
+        <v>2909.037235302932</v>
       </c>
       <c r="V26" t="n">
-        <v>2964.242606950185</v>
+        <v>2625.423980907434</v>
       </c>
       <c r="W26" t="n">
-        <v>2658.923584628144</v>
+        <v>2320.104958585393</v>
       </c>
       <c r="X26" t="n">
-        <v>2332.907459315138</v>
+        <v>1994.088833272387</v>
       </c>
       <c r="Y26" t="n">
-        <v>1990.2177602874</v>
+        <v>1768.556402935122</v>
       </c>
     </row>
     <row r="27">
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.7614826343964</v>
+        <v>941.7614826343963</v>
       </c>
       <c r="C27" t="n">
-        <v>767.3084533532694</v>
+        <v>767.3084533532693</v>
       </c>
       <c r="D27" t="n">
-        <v>618.3740436920182</v>
+        <v>618.3740436920181</v>
       </c>
       <c r="E27" t="n">
         <v>459.1365886865626</v>
@@ -6300,7 +6300,7 @@
         <v>85.73703618393318</v>
       </c>
       <c r="I27" t="n">
-        <v>66.72974458547115</v>
+        <v>66.72974458547117</v>
       </c>
       <c r="J27" t="n">
         <v>160.4070140760885</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>759.6838779585815</v>
+        <v>759.6838779585823</v>
       </c>
       <c r="C28" t="n">
-        <v>638.1973279787479</v>
+        <v>638.1973279787487</v>
       </c>
       <c r="D28" t="n">
-        <v>535.5303215144855</v>
+        <v>535.5303215144862</v>
       </c>
       <c r="E28" t="n">
-        <v>435.0668608801657</v>
+        <v>435.0668608801664</v>
       </c>
       <c r="F28" t="n">
-        <v>335.6265463303287</v>
+        <v>335.6265463303292</v>
       </c>
       <c r="G28" t="n">
-        <v>215.3733426531214</v>
+        <v>215.3733426531215</v>
       </c>
       <c r="H28" t="n">
         <v>116.6057888190525</v>
       </c>
       <c r="I28" t="n">
-        <v>66.72974458547115</v>
+        <v>66.72974458547117</v>
       </c>
       <c r="J28" t="n">
-        <v>158.3577622848131</v>
+        <v>158.3577622848132</v>
       </c>
       <c r="K28" t="n">
-        <v>408.8503304860961</v>
+        <v>408.8503304860963</v>
       </c>
       <c r="L28" t="n">
         <v>771.915514186999</v>
@@ -6412,22 +6412,22 @@
         <v>2112.938182741534</v>
       </c>
       <c r="T28" t="n">
-        <v>1938.621200259133</v>
+        <v>1938.621200259134</v>
       </c>
       <c r="U28" t="n">
-        <v>1696.96796633285</v>
+        <v>1696.967966332851</v>
       </c>
       <c r="V28" t="n">
         <v>1489.733111075037</v>
       </c>
       <c r="W28" t="n">
-        <v>1247.765573986149</v>
+        <v>1247.76557398615</v>
       </c>
       <c r="X28" t="n">
-        <v>1067.225656036205</v>
+        <v>1067.225656036206</v>
       </c>
       <c r="Y28" t="n">
-        <v>893.882709840748</v>
+        <v>893.8827098407488</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1739.698921099226</v>
+        <v>1312.248927128599</v>
       </c>
       <c r="C29" t="n">
-        <v>1418.186037106887</v>
+        <v>990.7360431362608</v>
       </c>
       <c r="D29" t="n">
-        <v>1386.361420727266</v>
+        <v>679.9199774775838</v>
       </c>
       <c r="E29" t="n">
-        <v>1048.022801077095</v>
+        <v>679.9199774775838</v>
       </c>
       <c r="F29" t="n">
-        <v>684.4865292355609</v>
+        <v>316.3837056360495</v>
       </c>
       <c r="G29" t="n">
-        <v>316.8637120286307</v>
+        <v>66.72974458547115</v>
       </c>
       <c r="H29" t="n">
         <v>66.72974458547115</v>
@@ -6473,40 +6473,40 @@
         <v>1573.994367154677</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.773184213459</v>
+        <v>2131.436963724558</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.745655092796</v>
+        <v>2634.409434603895</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.520021449974</v>
+        <v>3029.183800961073</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.806383205656</v>
+        <v>3277.470162716755</v>
       </c>
       <c r="R29" t="n">
         <v>3336.487229273558</v>
       </c>
       <c r="S29" t="n">
-        <v>3336.487229273558</v>
+        <v>3273.646193748726</v>
       </c>
       <c r="T29" t="n">
-        <v>3336.487229273558</v>
+        <v>3115.118079081021</v>
       </c>
       <c r="U29" t="n">
-        <v>3336.487229273558</v>
+        <v>2909.037235302931</v>
       </c>
       <c r="V29" t="n">
-        <v>3052.87397487806</v>
+        <v>2625.423980907433</v>
       </c>
       <c r="W29" t="n">
-        <v>2747.55495255602</v>
+        <v>2320.104958585393</v>
       </c>
       <c r="X29" t="n">
-        <v>2421.538827243013</v>
+        <v>1994.088833272386</v>
       </c>
       <c r="Y29" t="n">
-        <v>2078.849128215275</v>
+        <v>1651.399134244648</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.7614826343964</v>
+        <v>941.7614826343963</v>
       </c>
       <c r="C30" t="n">
-        <v>767.3084533532694</v>
+        <v>767.3084533532693</v>
       </c>
       <c r="D30" t="n">
-        <v>618.3740436920182</v>
+        <v>618.3740436920181</v>
       </c>
       <c r="E30" t="n">
         <v>459.1365886865626</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>759.6838779585821</v>
+        <v>759.6838779585819</v>
       </c>
       <c r="C31" t="n">
-        <v>638.1973279787485</v>
+        <v>638.1973279787483</v>
       </c>
       <c r="D31" t="n">
-        <v>535.5303215144861</v>
+        <v>535.5303215144859</v>
       </c>
       <c r="E31" t="n">
-        <v>435.0668608801662</v>
+        <v>435.066860880166</v>
       </c>
       <c r="F31" t="n">
-        <v>335.6265463303292</v>
+        <v>335.6265463303289</v>
       </c>
       <c r="G31" t="n">
-        <v>215.3733426531214</v>
+        <v>215.3733426531212</v>
       </c>
       <c r="H31" t="n">
         <v>116.6057888190525</v>
@@ -6619,13 +6619,13 @@
         <v>66.72974458547115</v>
       </c>
       <c r="J31" t="n">
-        <v>158.3577622848134</v>
+        <v>158.3577622848131</v>
       </c>
       <c r="K31" t="n">
-        <v>408.8503304860964</v>
+        <v>408.8503304860962</v>
       </c>
       <c r="L31" t="n">
-        <v>771.9155141869992</v>
+        <v>771.915514186999</v>
       </c>
       <c r="M31" t="n">
         <v>1162.577945038955</v>
@@ -6664,7 +6664,7 @@
         <v>1067.225656036205</v>
       </c>
       <c r="Y31" t="n">
-        <v>893.8827098407485</v>
+        <v>893.8827098407482</v>
       </c>
     </row>
     <row r="32">
@@ -6683,10 +6683,10 @@
         <v>1184.521008370214</v>
       </c>
       <c r="E32" t="n">
-        <v>896.6424918093062</v>
+        <v>896.642491809306</v>
       </c>
       <c r="F32" t="n">
-        <v>583.566323057035</v>
+        <v>583.5663230570347</v>
       </c>
       <c r="G32" t="n">
         <v>266.4036089393676</v>
@@ -6707,19 +6707,19 @@
         <v>1040.462462482752</v>
       </c>
       <c r="M32" t="n">
-        <v>1584.658146665775</v>
+        <v>1573.994367154677</v>
       </c>
       <c r="N32" t="n">
-        <v>2131.436963724558</v>
+        <v>2120.773184213459</v>
       </c>
       <c r="O32" t="n">
-        <v>2634.409434603895</v>
+        <v>2623.745655092796</v>
       </c>
       <c r="P32" t="n">
-        <v>3029.183800961073</v>
+        <v>3018.520021449974</v>
       </c>
       <c r="Q32" t="n">
-        <v>3277.470162716755</v>
+        <v>3266.806383205656</v>
       </c>
       <c r="R32" t="n">
         <v>3336.487229273558</v>
@@ -6731,7 +6731,7 @@
         <v>3216.038285259547</v>
       </c>
       <c r="U32" t="n">
-        <v>3060.41754457072</v>
+        <v>3060.417544570721</v>
       </c>
       <c r="V32" t="n">
         <v>2827.264393264486</v>
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.7614826343961</v>
+        <v>941.7614826343963</v>
       </c>
       <c r="C33" t="n">
-        <v>767.3084533532691</v>
+        <v>767.3084533532693</v>
       </c>
       <c r="D33" t="n">
-        <v>618.3740436920179</v>
+        <v>618.3740436920181</v>
       </c>
       <c r="E33" t="n">
-        <v>459.1365886865624</v>
+        <v>459.1365886865626</v>
       </c>
       <c r="F33" t="n">
-        <v>312.6020307134474</v>
+        <v>312.6020307134476</v>
       </c>
       <c r="G33" t="n">
-        <v>176.2389305460659</v>
+        <v>176.2389305460657</v>
       </c>
       <c r="H33" t="n">
-        <v>85.73703618393347</v>
+        <v>85.73703618393318</v>
       </c>
       <c r="I33" t="n">
         <v>66.72974458547115</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>548.0525156306878</v>
+        <v>407.0472151894228</v>
       </c>
       <c r="C34" t="n">
-        <v>379.1163327027809</v>
+        <v>336.0207682988522</v>
       </c>
       <c r="D34" t="n">
-        <v>326.9094293277816</v>
+        <v>283.8138649238527</v>
       </c>
       <c r="E34" t="n">
-        <v>276.9060717827248</v>
+        <v>233.8105073787959</v>
       </c>
       <c r="F34" t="n">
-        <v>227.9258603221508</v>
+        <v>184.8302959182219</v>
       </c>
       <c r="G34" t="n">
-        <v>158.1327597342062</v>
+        <v>115.0371953302771</v>
       </c>
       <c r="H34" t="n">
         <v>66.72974458547115</v>
@@ -6880,28 +6880,28 @@
         <v>1927.51217624178</v>
       </c>
       <c r="R34" t="n">
-        <v>1837.681718999308</v>
+        <v>1927.51217624178</v>
       </c>
       <c r="S34" t="n">
-        <v>1645.995834826135</v>
+        <v>1833.736028105943</v>
       </c>
       <c r="T34" t="n">
-        <v>1522.138955432997</v>
+        <v>1611.969412675469</v>
       </c>
       <c r="U34" t="n">
-        <v>1330.945824595977</v>
+        <v>1322.866545801113</v>
       </c>
       <c r="V34" t="n">
-        <v>1174.171072427426</v>
+        <v>1068.182057595226</v>
       </c>
       <c r="W34" t="n">
-        <v>982.6636384278022</v>
+        <v>778.7648875582652</v>
       </c>
       <c r="X34" t="n">
-        <v>852.5838235671213</v>
+        <v>613.66878708852</v>
       </c>
       <c r="Y34" t="n">
-        <v>729.7009804609276</v>
+        <v>490.7859439823263</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>894.1397680464979</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307341</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329465</v>
@@ -6947,25 +6947,25 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U35" t="n">
         <v>3051.821232515855</v>
@@ -6980,7 +6980,7 @@
         <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="36">
@@ -7005,16 +7005,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.2593958170923</v>
+        <v>599.6022649647792</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630288</v>
+        <v>430.6660820368723</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245365</v>
+        <v>379.22087719838</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159868</v>
+        <v>329.9792181898302</v>
       </c>
       <c r="F37" t="n">
         <v>183.0892706919199</v>
@@ -7087,10 +7087,10 @@
         <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7120,25 +7120,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489163</v>
+        <v>1791.646827515027</v>
       </c>
       <c r="T37" t="n">
-        <v>1711.184917632532</v>
+        <v>1569.880212084553</v>
       </c>
       <c r="U37" t="n">
-        <v>1520.753485332019</v>
+        <v>1379.44877978404</v>
       </c>
       <c r="V37" t="n">
-        <v>1322.10716072584</v>
+        <v>1124.764291578153</v>
       </c>
       <c r="W37" t="n">
-        <v>1032.689990688879</v>
+        <v>934.0185561150363</v>
       </c>
       <c r="X37" t="n">
-        <v>804.7004397908621</v>
+        <v>804.7004397908623</v>
       </c>
       <c r="Y37" t="n">
-        <v>583.907860647332</v>
+        <v>682.5792952211756</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470372</v>
+        <v>1711.141932470375</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103804</v>
+        <v>1440.850850103807</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.2565860709</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464961</v>
+        <v>894.1397680464988</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307323</v>
+        <v>581.8252978307346</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495728</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049855</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.538235362622</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.07033796065</v>
+        <v>1999.070337960654</v>
       </c>
     </row>
     <row r="39">
@@ -7242,16 +7242,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>698.2736995386226</v>
+        <v>444.8926667912274</v>
       </c>
       <c r="C40" t="n">
-        <v>628.0089511845591</v>
+        <v>374.6279184371639</v>
       </c>
       <c r="D40" t="n">
-        <v>477.8923117722234</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E40" t="n">
-        <v>329.9792181898302</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F40" t="n">
         <v>183.0892706919199</v>
@@ -7324,10 +7324,10 @@
         <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7360,22 +7360,22 @@
         <v>1834.280098489163</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.184917632532</v>
+        <v>1612.513483058689</v>
       </c>
       <c r="U40" t="n">
-        <v>1520.753485332019</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V40" t="n">
-        <v>1364.740431699975</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W40" t="n">
-        <v>1131.361425262723</v>
+        <v>877.9803925153278</v>
       </c>
       <c r="X40" t="n">
-        <v>1002.043308938549</v>
+        <v>748.6622761911539</v>
       </c>
       <c r="Y40" t="n">
-        <v>879.9221643688624</v>
+        <v>527.8696970476237</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C41" t="n">
         <v>1440.850850103805</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464966</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307324</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T41" t="n">
         <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="42">
@@ -7464,31 +7464,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
@@ -7521,7 +7521,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7530,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>642.2355359389151</v>
+        <v>402.2593958170928</v>
       </c>
       <c r="C43" t="n">
-        <v>571.9707875848517</v>
+        <v>331.9946474630292</v>
       </c>
       <c r="D43" t="n">
-        <v>421.8541481725159</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E43" t="n">
-        <v>273.9410545901228</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919197</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1884.661277114358</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489163</v>
+        <v>1692.975392941185</v>
       </c>
       <c r="T43" t="n">
-        <v>1711.184917632532</v>
+        <v>1471.208777510711</v>
       </c>
       <c r="U43" t="n">
-        <v>1520.753485332019</v>
+        <v>1280.777345210198</v>
       </c>
       <c r="V43" t="n">
-        <v>1364.740431699976</v>
+        <v>1026.092857004311</v>
       </c>
       <c r="W43" t="n">
-        <v>1075.323261663015</v>
+        <v>835.3471215411932</v>
       </c>
       <c r="X43" t="n">
-        <v>946.0051453388414</v>
+        <v>706.0290052170193</v>
       </c>
       <c r="Y43" t="n">
-        <v>725.2125661953113</v>
+        <v>583.9078606473325</v>
       </c>
     </row>
     <row r="44">
@@ -7625,58 +7625,58 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307335</v>
+        <v>581.8252978307331</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U44" t="n">
         <v>3051.821232515855</v>
@@ -7691,7 +7691,7 @@
         <v>2290.538235362621</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="45">
@@ -7701,70 +7701,70 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927785</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064588</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U45" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X45" t="n">
         <v>1317.519490266131</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>599.6022649647789</v>
+        <v>402.2593958170928</v>
       </c>
       <c r="C46" t="n">
-        <v>529.3375166107154</v>
+        <v>331.9946474630292</v>
       </c>
       <c r="D46" t="n">
-        <v>477.8923117722231</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E46" t="n">
-        <v>428.6506527636735</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F46" t="n">
-        <v>380.4321398396066</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143256</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O46" t="n">
         <v>1617.076751502319</v>
@@ -7828,28 +7828,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S46" t="n">
-        <v>1834.280098489163</v>
+        <v>1692.975392941185</v>
       </c>
       <c r="T46" t="n">
-        <v>1612.513483058689</v>
+        <v>1569.880212084554</v>
       </c>
       <c r="U46" t="n">
-        <v>1323.410616184332</v>
+        <v>1379.448779784041</v>
       </c>
       <c r="V46" t="n">
-        <v>1124.764291578153</v>
+        <v>1124.764291578154</v>
       </c>
       <c r="W46" t="n">
-        <v>934.0185561150356</v>
+        <v>934.0185561150366</v>
       </c>
       <c r="X46" t="n">
-        <v>804.7004397908618</v>
+        <v>706.0290052170193</v>
       </c>
       <c r="Y46" t="n">
-        <v>682.5792952211751</v>
+        <v>583.9078606473325</v>
       </c>
     </row>
   </sheetData>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>213.8677805682746</v>
+        <v>213.8677805682735</v>
       </c>
       <c r="L8" t="n">
-        <v>228.0473863505261</v>
+        <v>228.0473863505248</v>
       </c>
       <c r="M8" t="n">
-        <v>221.7573265905352</v>
+        <v>221.7573265905337</v>
       </c>
       <c r="N8" t="n">
-        <v>220.6851794710456</v>
+        <v>220.6851794710441</v>
       </c>
       <c r="O8" t="n">
-        <v>221.8567179355899</v>
+        <v>221.8567179355884</v>
       </c>
       <c r="P8" t="n">
-        <v>224.1990717385765</v>
+        <v>224.1990717385753</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>124.3650025758402</v>
+        <v>124.3650025758398</v>
       </c>
       <c r="K9" t="n">
-        <v>133.6153305693658</v>
+        <v>133.6153305693651</v>
       </c>
       <c r="L9" t="n">
-        <v>132.8718554951908</v>
+        <v>132.8718554951898</v>
       </c>
       <c r="M9" t="n">
-        <v>135.5027961091478</v>
+        <v>135.5027961091466</v>
       </c>
       <c r="N9" t="n">
-        <v>124.53496513742</v>
+        <v>124.5349651374188</v>
       </c>
       <c r="O9" t="n">
-        <v>136.3694007948895</v>
+        <v>136.3694007948884</v>
       </c>
       <c r="P9" t="n">
-        <v>128.9768164173291</v>
+        <v>128.9768164173282</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.641016853794</v>
+        <v>136.6410168537934</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,16 +8614,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>131.6226139202311</v>
+        <v>131.6226139202305</v>
       </c>
       <c r="M10" t="n">
-        <v>135.4863965628155</v>
+        <v>135.4863965628149</v>
       </c>
       <c r="N10" t="n">
-        <v>124.3279380250452</v>
+        <v>124.3279380250446</v>
       </c>
       <c r="O10" t="n">
-        <v>135.355245459979</v>
+        <v>135.3552454599785</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>-2.263538044294892e-13</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>-3.592806868516836e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>10.77149445565624</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>10.77149445565527</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>10.77149445565544</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>10.77149445565615</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>10.77149445565522</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>10.77149445565527</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>10.77149445565544</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>10.77149445565527</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.25382330877945</v>
+        <v>15.25382330877944</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>23.23161743843631</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958329</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>126.832122807702</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23495,16 +23495,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>42.32535640796413</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.2126251695833</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>125.4037548708656</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>52.28225787288017</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>52.28225787287744</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>52.28225787287636</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>52.28225787287847</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24221,7 +24221,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>41.72511615688952</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24263,7 +24263,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>41.72511615688839</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24455,10 +24455,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24497,10 +24497,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>54.65331793078226</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24509,7 +24509,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>115.985696003569</v>
       </c>
     </row>
     <row r="27">
@@ -24683,19 +24683,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>276.2015347862653</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>116.7891675947884</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24728,13 +24728,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>791029.0384390756</v>
+        <v>791029.038439075</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>644156.8503893913</v>
+        <v>644156.8503893914</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>687344.851493793</v>
+        <v>687344.8514937927</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>687344.8514937931</v>
+        <v>687344.851493793</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>645321.7139131487</v>
+        <v>645321.7139131491</v>
       </c>
     </row>
     <row r="11">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>757830.6133132605</v>
+        <v>757830.6133132607</v>
       </c>
       <c r="C2" t="n">
         <v>757830.6133132604</v>
       </c>
       <c r="D2" t="n">
-        <v>757834.2148662742</v>
+        <v>757834.2148662746</v>
       </c>
       <c r="E2" t="n">
         <v>707191.1841481045</v>
       </c>
       <c r="F2" t="n">
-        <v>707191.1841481039</v>
+        <v>707191.1841481038</v>
       </c>
       <c r="G2" t="n">
-        <v>755614.0944772819</v>
+        <v>755614.0944772818</v>
       </c>
       <c r="H2" t="n">
         <v>755614.094477282</v>
       </c>
       <c r="I2" t="n">
-        <v>756391.4168218302</v>
+        <v>756391.4168218301</v>
       </c>
       <c r="J2" t="n">
         <v>707968.5064926523</v>
       </c>
       <c r="K2" t="n">
-        <v>707968.506492652</v>
+        <v>707968.5064926523</v>
       </c>
       <c r="L2" t="n">
-        <v>759463.6371244626</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="M2" t="n">
+        <v>759463.6371244623</v>
+      </c>
+      <c r="N2" t="n">
         <v>759463.6371244629</v>
       </c>
-      <c r="N2" t="n">
-        <v>759463.6371244622</v>
-      </c>
       <c r="O2" t="n">
+        <v>759463.6371244621</v>
+      </c>
+      <c r="P2" t="n">
         <v>759463.637124463</v>
-      </c>
-      <c r="P2" t="n">
-        <v>759463.6371244624</v>
       </c>
     </row>
     <row r="3">
@@ -26369,34 +26369,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>10420.33926655362</v>
+        <v>10420.33926655544</v>
       </c>
       <c r="E3" t="n">
-        <v>1151572.830875722</v>
+        <v>1151572.83087572</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487428</v>
+        <v>37580.10929487415</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>723.3987018803099</v>
+        <v>723.3987018804307</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-11</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>77544.51094157045</v>
+        <v>77544.51094157025</v>
       </c>
       <c r="M3" t="n">
-        <v>207113.9109540876</v>
+        <v>207113.9109540877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>463150.7311021098</v>
       </c>
       <c r="D4" t="n">
-        <v>459028.1883762667</v>
+        <v>459028.188376266</v>
       </c>
       <c r="E4" t="n">
-        <v>61265.27723866004</v>
+        <v>61265.27723866007</v>
       </c>
       <c r="F4" t="n">
-        <v>61265.27723866005</v>
+        <v>61265.27723866011</v>
       </c>
       <c r="G4" t="n">
-        <v>91028.44393036209</v>
+        <v>91028.44393036203</v>
       </c>
       <c r="H4" t="n">
-        <v>91028.44393036212</v>
+        <v>91028.44393036205</v>
       </c>
       <c r="I4" t="n">
-        <v>91501.30607406871</v>
+        <v>91501.30607406868</v>
       </c>
       <c r="J4" t="n">
+        <v>61738.13938236669</v>
+      </c>
+      <c r="K4" t="n">
         <v>61738.13938236667</v>
       </c>
-      <c r="K4" t="n">
-        <v>61738.13938236664</v>
-      </c>
       <c r="L4" t="n">
-        <v>93397.00574718691</v>
+        <v>93397.00574718686</v>
       </c>
       <c r="M4" t="n">
+        <v>93403.78684820635</v>
+      </c>
+      <c r="N4" t="n">
         <v>93403.78684820632</v>
       </c>
-      <c r="N4" t="n">
-        <v>93403.78684820631</v>
-      </c>
       <c r="O4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820629</v>
       </c>
       <c r="P4" t="n">
-        <v>93403.78684820635</v>
+        <v>93403.78684820628</v>
       </c>
     </row>
     <row r="5">
@@ -26473,40 +26473,40 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33892.84951251482</v>
+        <v>33892.84951251487</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="G5" t="n">
-        <v>82204.64608217022</v>
+        <v>82204.64608217021</v>
       </c>
       <c r="H5" t="n">
-        <v>82204.64608217022</v>
+        <v>82204.64608217021</v>
       </c>
       <c r="I5" t="n">
         <v>82370.0434786689</v>
       </c>
       <c r="J5" t="n">
-        <v>78420.89071828043</v>
+        <v>78420.89071828045</v>
       </c>
       <c r="K5" t="n">
         <v>78420.89071828043</v>
       </c>
       <c r="L5" t="n">
-        <v>82620.59982082558</v>
+        <v>82620.59982082556</v>
       </c>
       <c r="M5" t="n">
+        <v>82518.59730624987</v>
+      </c>
+      <c r="N5" t="n">
+        <v>82518.59730624987</v>
+      </c>
+      <c r="O5" t="n">
         <v>82518.59730624985</v>
-      </c>
-      <c r="N5" t="n">
-        <v>82518.59730624985</v>
-      </c>
-      <c r="O5" t="n">
-        <v>82518.59730624987</v>
       </c>
       <c r="P5" t="n">
         <v>82518.59730624987</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>261052.2822111507</v>
+        <v>261047.8686332828</v>
       </c>
       <c r="C6" t="n">
-        <v>261052.2822111506</v>
+        <v>261047.8686332825</v>
       </c>
       <c r="D6" t="n">
-        <v>254492.8377109389</v>
+        <v>254488.4338669972</v>
       </c>
       <c r="E6" t="n">
-        <v>-583902.417288059</v>
+        <v>-584043.6941879932</v>
       </c>
       <c r="F6" t="n">
-        <v>567670.4135876622</v>
+        <v>567529.1366877258</v>
       </c>
       <c r="G6" t="n">
-        <v>544800.8951698754</v>
+        <v>544790.4910005587</v>
       </c>
       <c r="H6" t="n">
-        <v>582381.0044647498</v>
+        <v>582370.6002954331</v>
       </c>
       <c r="I6" t="n">
-        <v>581796.6685672123</v>
+        <v>581788.3652690968</v>
       </c>
       <c r="J6" t="n">
-        <v>567809.4763920052</v>
+        <v>567670.3003632706</v>
       </c>
       <c r="K6" t="n">
-        <v>567809.4763920049</v>
+        <v>567670.3003632706</v>
       </c>
       <c r="L6" t="n">
         <v>505901.5206148796</v>
       </c>
       <c r="M6" t="n">
-        <v>376427.3420159191</v>
+        <v>376427.3420159185</v>
       </c>
       <c r="N6" t="n">
-        <v>583541.252970006</v>
+        <v>583541.2529700067</v>
       </c>
       <c r="O6" t="n">
+        <v>583541.2529700059</v>
+      </c>
+      <c r="P6" t="n">
         <v>583541.2529700068</v>
-      </c>
-      <c r="P6" t="n">
-        <v>583541.2529700062</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G2" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="H2" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="I2" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="J2" t="n">
+        <v>46.97513661859254</v>
+      </c>
+      <c r="K2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="K2" t="n">
-        <v>46.97513661859255</v>
-      </c>
       <c r="L2" t="n">
-        <v>96.93063867696299</v>
+        <v>96.93063867696291</v>
       </c>
       <c r="M2" t="n">
         <v>97.68472022810496</v>
@@ -26722,10 +26722,10 @@
         <v>97.68472022810496</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12.16740883095514</v>
+        <v>12.16740883095727</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26750,7 +26750,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>834.1218073183894</v>
+        <v>834.1218073183896</v>
       </c>
       <c r="J4" t="n">
-        <v>834.1218073183894</v>
+        <v>834.1218073183896</v>
       </c>
       <c r="K4" t="n">
         <v>834.1218073183894</v>
@@ -26820,16 +26820,16 @@
         <v>834.1218073183894</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859247</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>96.93063867696307</v>
+        <v>96.93063867696281</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7540815511419794</v>
+        <v>0.7540815511420504</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12.16740883095514</v>
+        <v>12.16740883095727</v>
       </c>
       <c r="E3" t="n">
-        <v>1077.609291762343</v>
+        <v>1077.609291762341</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2.720351916096547</v>
+        <v>2.720351916097002</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>828.681103486196</v>
+        <v>828.6811034861961</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859247</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,13 +27868,13 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>338.9738594999279</v>
+        <v>338.9738594999278</v>
       </c>
       <c r="I8" t="n">
-        <v>208.5901246298817</v>
+        <v>208.5901246298814</v>
       </c>
       <c r="J8" t="n">
-        <v>7.797757232939032</v>
+        <v>7.797757232938306</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,13 +27895,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.708515212961659</v>
+        <v>4.708515212960735</v>
       </c>
       <c r="R8" t="n">
-        <v>146.7965109261648</v>
+        <v>146.7965109261643</v>
       </c>
       <c r="S8" t="n">
-        <v>207.9054371089171</v>
+        <v>207.9054371089169</v>
       </c>
       <c r="T8" t="n">
         <v>222.8817276258097</v>
@@ -27950,7 +27950,7 @@
         <v>111.9826835360647</v>
       </c>
       <c r="I9" t="n">
-        <v>88.49555587666981</v>
+        <v>88.49555587666966</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>98.5329111393318</v>
+        <v>98.53291113933152</v>
       </c>
       <c r="S9" t="n">
-        <v>171.1970486849784</v>
+        <v>171.1970486849783</v>
       </c>
       <c r="T9" t="n">
         <v>200.0592395559947</v>
@@ -28029,13 +28029,13 @@
         <v>162.0320950347072</v>
       </c>
       <c r="I10" t="n">
-        <v>154.7906423303271</v>
+        <v>154.790642330327</v>
       </c>
       <c r="J10" t="n">
-        <v>91.80793522358526</v>
+        <v>91.80793522358499</v>
       </c>
       <c r="K10" t="n">
-        <v>19.72031994293848</v>
+        <v>19.72031994293803</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,16 +28050,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.06774881564705026</v>
+        <v>0.06774881564658575</v>
       </c>
       <c r="Q10" t="n">
-        <v>84.32476451822016</v>
+        <v>84.32476451821984</v>
       </c>
       <c r="R10" t="n">
-        <v>176.3068339332694</v>
+        <v>176.3068339332692</v>
       </c>
       <c r="S10" t="n">
-        <v>223.6342222545306</v>
+        <v>223.6342222545305</v>
       </c>
       <c r="T10" t="n">
         <v>227.8518405405676</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.9751366185928</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859313</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="C17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="D17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="E17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="F17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="G17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="H17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="T17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="U17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="V17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="W17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="X17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="Y17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="E19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="H19" t="n">
-        <v>91.48995205464163</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="I19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>93.95027323718516</v>
+        <v>91.4899520546435</v>
       </c>
       <c r="T19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="U19" t="n">
-        <v>93.95027323718516</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="W19" t="n">
-        <v>93.95027323718516</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.95027323718516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="C20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="D20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="E20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="F20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="G20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="H20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="T20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="U20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="V20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="W20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="X20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="Y20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.95027323718516</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="D22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="E22" t="n">
-        <v>91.48995205464207</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29007,25 +29007,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="T22" t="n">
-        <v>93.95027323718516</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="V22" t="n">
-        <v>93.95027323718516</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>93.95027323718516</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.95027323718516</v>
+        <v>91.48995205464362</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="C23" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="D23" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="E23" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="F23" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="G23" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="H23" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="T23" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="U23" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="V23" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="W23" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="X23" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="Y23" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.95027323718516</v>
+        <v>86.47183148750585</v>
       </c>
       <c r="C25" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="D25" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="E25" t="n">
-        <v>91.48995205464219</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="I25" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="T25" t="n">
-        <v>93.95027323718516</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="V25" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="W25" t="n">
-        <v>93.95027323718516</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718503</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.9751366185921</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>96.93063867696299</v>
+        <v>96.93063867696291</v>
       </c>
       <c r="C32" t="n">
-        <v>96.93063867696299</v>
+        <v>96.93063867696291</v>
       </c>
       <c r="D32" t="n">
-        <v>96.93063867696299</v>
+        <v>96.93063867696291</v>
       </c>
       <c r="E32" t="n">
-        <v>96.93063867696299</v>
+        <v>96.93063867696291</v>
       </c>
       <c r="F32" t="n">
-        <v>96.93063867696299</v>
+        <v>96.93063867696291</v>
       </c>
       <c r="G32" t="n">
-        <v>96.93063867696299</v>
+        <v>96.93063867696291</v>
       </c>
       <c r="H32" t="n">
-        <v>96.93063867696299</v>
+        <v>96.93063867696291</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>96.93063867696299</v>
+        <v>96.93063867696291</v>
       </c>
       <c r="T32" t="n">
-        <v>96.93063867696299</v>
+        <v>96.93063867696291</v>
       </c>
       <c r="U32" t="n">
-        <v>96.93063867696299</v>
+        <v>96.93063867696291</v>
       </c>
       <c r="V32" t="n">
-        <v>96.93063867696299</v>
+        <v>96.93063867696291</v>
       </c>
       <c r="W32" t="n">
-        <v>96.93063867696299</v>
+        <v>96.93063867696291</v>
       </c>
       <c r="X32" t="n">
-        <v>96.93063867696299</v>
+        <v>96.93063867696291</v>
       </c>
       <c r="Y32" t="n">
-        <v>96.93063867696299</v>
+        <v>96.93063867696291</v>
       </c>
     </row>
     <row r="33">
@@ -29904,25 +29904,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>96.93063867696291</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>96.93063867696291</v>
       </c>
       <c r="D34" t="n">
-        <v>96.93063867696299</v>
+        <v>96.93063867696291</v>
       </c>
       <c r="E34" t="n">
-        <v>96.93063867696299</v>
+        <v>96.93063867696291</v>
       </c>
       <c r="F34" t="n">
-        <v>96.93063867696299</v>
+        <v>96.93063867696291</v>
       </c>
       <c r="G34" t="n">
-        <v>96.93063867696299</v>
+        <v>96.93063867696291</v>
       </c>
       <c r="H34" t="n">
-        <v>54.26602991707313</v>
+        <v>96.93063867696291</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -29952,28 +29952,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>96.93063867696291</v>
       </c>
       <c r="T34" t="n">
-        <v>96.93063867696299</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>96.93063867696299</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>96.93063867696299</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>96.93063867696299</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>96.93063867696299</v>
+        <v>62.26451592398948</v>
       </c>
       <c r="Y34" t="n">
-        <v>96.93063867696299</v>
+        <v>96.93063867696291</v>
       </c>
     </row>
     <row r="35">
@@ -30141,10 +30141,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>97.68472022810496</v>
@@ -30153,7 +30153,7 @@
         <v>97.68472022810496</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>97.68472022810496</v>
@@ -30192,25 +30192,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810496</v>
+        <v>55.47778196371112</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>97.68472022810496</v>
       </c>
       <c r="V37" t="n">
-        <v>55.47778196371084</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="38">
@@ -30378,19 +30378,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C40" t="n">
         <v>97.68472022810496</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>55.47778196371118</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G40" t="n">
         <v>97.68472022810496</v>
@@ -30432,22 +30432,22 @@
         <v>97.68472022810496</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>97.68472022810496</v>
       </c>
       <c r="W40" t="n">
-        <v>55.47778196371112</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>97.68472022810496</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="42">
@@ -30615,25 +30615,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810504</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F43" t="n">
-        <v>55.4777819637102</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>46.7252144056541</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810504</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810504</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810504</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="45">
@@ -30852,25 +30852,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810504</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810504</v>
+        <v>46.72521440565353</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V46" t="n">
-        <v>55.47778196371064</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810504</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04891420635559853</v>
+        <v>0.04891420635560709</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5009426158392736</v>
+        <v>0.5009426158393613</v>
       </c>
       <c r="I8" t="n">
-        <v>1.885764940524214</v>
+        <v>1.885764940524544</v>
       </c>
       <c r="J8" t="n">
-        <v>4.151532121673485</v>
+        <v>4.151532121674212</v>
       </c>
       <c r="K8" t="n">
-        <v>6.222070476705972</v>
+        <v>6.222070476707061</v>
       </c>
       <c r="L8" t="n">
-        <v>7.719028619461122</v>
+        <v>7.719028619462474</v>
       </c>
       <c r="M8" t="n">
-        <v>8.588906636737498</v>
+        <v>8.588906636739001</v>
       </c>
       <c r="N8" t="n">
-        <v>8.727884125545343</v>
+        <v>8.72788412554687</v>
       </c>
       <c r="O8" t="n">
-        <v>8.241493486096859</v>
+        <v>8.241493486098301</v>
       </c>
       <c r="P8" t="n">
-        <v>7.033924016693019</v>
+        <v>7.03392401669425</v>
       </c>
       <c r="Q8" t="n">
-        <v>5.282184001583145</v>
+        <v>5.28218400158407</v>
       </c>
       <c r="R8" t="n">
-        <v>3.072607014984869</v>
+        <v>3.072607014985407</v>
       </c>
       <c r="S8" t="n">
-        <v>1.114632477328203</v>
+        <v>1.114632477328398</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2141219383216327</v>
+        <v>0.2141219383216702</v>
       </c>
       <c r="U8" t="n">
-        <v>0.003913136508447882</v>
+        <v>0.003913136508448567</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02617140767412993</v>
+        <v>0.02617140767413452</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2527607004317286</v>
+        <v>0.2527607004317728</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9010769747452632</v>
+        <v>0.9010769747454209</v>
       </c>
       <c r="J9" t="n">
-        <v>2.472624090826461</v>
+        <v>2.472624090826893</v>
       </c>
       <c r="K9" t="n">
-        <v>4.226108404993166</v>
+        <v>4.226108404993906</v>
       </c>
       <c r="L9" t="n">
-        <v>5.682524284683344</v>
+        <v>5.682524284684339</v>
       </c>
       <c r="M9" t="n">
-        <v>6.631237812870553</v>
+        <v>6.631237812871714</v>
       </c>
       <c r="N9" t="n">
-        <v>6.806746945913294</v>
+        <v>6.806746945914486</v>
       </c>
       <c r="O9" t="n">
-        <v>6.226843649554941</v>
+        <v>6.226843649556031</v>
       </c>
       <c r="P9" t="n">
-        <v>4.997590997001181</v>
+        <v>4.997590997002056</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.340757232227534</v>
+        <v>3.340757232228118</v>
       </c>
       <c r="R9" t="n">
-        <v>1.624923013311331</v>
+        <v>1.624923013311615</v>
       </c>
       <c r="S9" t="n">
-        <v>0.4861224188593868</v>
+        <v>0.4861224188594719</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1054891388268658</v>
+        <v>0.1054891388268843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001721803136455917</v>
+        <v>0.001721803136456219</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02194122903942731</v>
+        <v>0.02194122903943115</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1950774727323629</v>
+        <v>0.1950774727323971</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6598325969311414</v>
+        <v>0.659832596931257</v>
       </c>
       <c r="J10" t="n">
-        <v>1.551244893087511</v>
+        <v>1.551244893087782</v>
       </c>
       <c r="K10" t="n">
-        <v>2.549171882944372</v>
+        <v>2.549171882944818</v>
       </c>
       <c r="L10" t="n">
-        <v>3.26206236100722</v>
+        <v>3.262062361007791</v>
       </c>
       <c r="M10" t="n">
-        <v>3.4393873847895</v>
+        <v>3.439387384790102</v>
       </c>
       <c r="N10" t="n">
-        <v>3.357606440188001</v>
+        <v>3.357606440188589</v>
       </c>
       <c r="O10" t="n">
-        <v>3.101292991863781</v>
+        <v>3.101292991864324</v>
       </c>
       <c r="P10" t="n">
-        <v>2.653691919459462</v>
+        <v>2.653691919459926</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.837278733474227</v>
+        <v>1.837278733474548</v>
       </c>
       <c r="R10" t="n">
-        <v>0.9865574439000676</v>
+        <v>0.9865574439002402</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3823757824416558</v>
+        <v>0.3823757824417227</v>
       </c>
       <c r="T10" t="n">
-        <v>0.09374888771391665</v>
+        <v>0.09374888771393307</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001196794311241491</v>
+        <v>0.0011967943112417</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32233,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32385,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -33983,7 +33983,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
         <v>557.708647897025</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34366,40 +34366,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O44" t="n">
         <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34518,43 +34518,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -35571,10 +35571,10 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M13" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N13" t="n">
         <v>391.8320827861326</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165875</v>
+        <v>92.553553231659</v>
       </c>
       <c r="K16" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861332</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O16" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3693751564862</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.787000968712</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36370,7 +36370,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>518.8244953438754</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36379,7 +36379,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>70.38469299788005</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>549.6926102858822</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
@@ -36613,7 +36613,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>261.5657992593756</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36762,7 +36762,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
@@ -36841,7 +36841,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>563.0733298685667</v>
       </c>
       <c r="O29" t="n">
         <v>508.0530008882191</v>
@@ -36853,7 +36853,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>70.38469299788005</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37008,7 +37008,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564858</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>549.6926102858822</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
@@ -37090,7 +37090,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>70.38469299788005</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554008</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.787000968712</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
@@ -37631,7 +37631,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525806</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687129</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
@@ -38032,13 +38032,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.794304803719</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
